--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>63373.93762428233</v>
+        <v>60672.28972174654</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663201</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>165.1725371760947</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>173.9484321805918</v>
       </c>
       <c r="X2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>33.8350826435401</v>
+        <v>179.4234713632113</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>52.21594625443444</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,13 +896,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>85.60639602143409</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>52.39333130435313</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27.49450687620438</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -987,7 +987,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>4.203143685691263</v>
       </c>
       <c r="H6" t="n">
         <v>94.50081326185514</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8205739680685</v>
@@ -1035,10 +1035,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1054,13 +1054,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>27.27400891908815</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
         <v>109.1541654470835</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>39.58193218590368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1133,25 +1133,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>194.9935311450447</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.830884450382</v>
+        <v>334.4782504081728</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>76.62727429151386</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>129.9052178731852</v>
+        <v>129.9052178731853</v>
       </c>
       <c r="T8" t="n">
-        <v>207.8978127731749</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0679046626562</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>38.16592475513241</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1227,10 +1227,10 @@
         <v>135.4859120069138</v>
       </c>
       <c r="H9" t="n">
-        <v>94.29488917436606</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>35.56536036433985</v>
+        <v>35.56536036433994</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,25 +1257,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>30.34503645282952</v>
+        <v>30.34503645282967</v>
       </c>
       <c r="S9" t="n">
-        <v>137.1789700647269</v>
+        <v>137.178970064727</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.6772763323794</v>
       </c>
       <c r="U9" t="n">
         <v>225.819171215429</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>54.17884584474988</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.703488463268025</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>16.89051046332416</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>196.8761692930955</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2340827876525</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>102.7231037103864</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4696069132659</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.1466220418456</v>
+        <v>24.14662204184563</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615213</v>
+        <v>98.88510599615216</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1430,13 +1430,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>265.727063137259</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>159.1634210090911</v>
       </c>
     </row>
     <row r="12">
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.757564313352</v>
+        <v>134.7575643133521</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812551</v>
+        <v>87.26058381812553</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530792</v>
+        <v>10.48847705530794</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>90.2261044700424</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0397454391487</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.2346889920369</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634818</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881288</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>21.63824106825009</v>
       </c>
       <c r="G16" t="n">
-        <v>125.4250331806701</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1822,7 +1822,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444128</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>-3.376499080331996e-12</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>51.36569740310124</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>83.53432244437471</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>24.06466448613869</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>222.8161206669571</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710066</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>101.3999237630426</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>14.75529838241474</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,10 +2947,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>130.9398757025642</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2959,16 +2959,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>107.402108275623</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3199,13 +3199,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>105.6507867899569</v>
+        <v>55.52079624060451</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3439,7 +3439,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428175</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.0656089242818</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797021</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703267</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428162</v>
+        <v>83.06560892428179</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>371.2627786323105</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="C2" t="n">
-        <v>371.2627786323105</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="D2" t="n">
-        <v>371.2627786323105</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="E2" t="n">
-        <v>371.2627786323105</v>
+        <v>35.17768229832527</v>
       </c>
       <c r="F2" t="n">
-        <v>181.8429936158255</v>
+        <v>28.2321815491218</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678512</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079182</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644752</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123835</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985591</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020272</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652805</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="T2" t="n">
-        <v>560.6825636487955</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="U2" t="n">
-        <v>560.6825636487955</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="V2" t="n">
-        <v>560.6825636487955</v>
+        <v>589.7227393823975</v>
       </c>
       <c r="W2" t="n">
-        <v>560.6825636487955</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="X2" t="n">
-        <v>371.2627786323105</v>
+        <v>414.0172523312947</v>
       </c>
       <c r="Y2" t="n">
-        <v>371.2627786323105</v>
+        <v>224.59746731481</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="C3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="D3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="E3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="F3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H3" t="n">
-        <v>74.50160142188287</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024219</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017069</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652805</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>676.9378076264288</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S3" t="n">
-        <v>676.9378076264288</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="T3" t="n">
-        <v>487.5180226099438</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="U3" t="n">
-        <v>487.5180226099438</v>
+        <v>487.5180226099429</v>
       </c>
       <c r="V3" t="n">
-        <v>487.5180226099438</v>
+        <v>298.0982375934582</v>
       </c>
       <c r="W3" t="n">
-        <v>453.3411714548528</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="X3" t="n">
-        <v>263.9213864383678</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="Y3" t="n">
-        <v>74.50160142188287</v>
+        <v>116.8624079336487</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W4" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1315.122952323401</v>
+        <v>1983.4026147697</v>
       </c>
       <c r="C5" t="n">
-        <v>1228.651845231044</v>
+        <v>1614.440097829288</v>
       </c>
       <c r="D5" t="n">
-        <v>870.3861466242934</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E5" t="n">
         <v>870.3861466242934</v>
@@ -4565,13 +4565,13 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M5" t="n">
         <v>1038.14846457873</v>
@@ -4601,16 +4601,16 @@
         <v>2036.325171642784</v>
       </c>
       <c r="V5" t="n">
-        <v>1705.262284299213</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W5" t="n">
-        <v>1705.262284299213</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="X5" t="n">
-        <v>1705.262284299213</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="Y5" t="n">
-        <v>1315.122952323401</v>
+        <v>1983.4026147697</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5261380428188</v>
+        <v>808.8957439404512</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0731087616919</v>
+        <v>634.4427146593242</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1386991004406</v>
+        <v>485.508304998073</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9012440949851</v>
+        <v>326.2708499926175</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3666861218701</v>
+        <v>179.7362920195024</v>
       </c>
       <c r="G6" t="n">
         <v>175.490692336986</v>
@@ -4668,28 +4668,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R6" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S6" t="n">
-        <v>1627.262386835205</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T6" t="n">
-        <v>1432.552065309181</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U6" t="n">
-        <v>1204.450475442445</v>
+        <v>1506.136709105928</v>
       </c>
       <c r="V6" t="n">
-        <v>969.2983672107021</v>
+        <v>1270.984600874186</v>
       </c>
       <c r="W6" t="n">
-        <v>969.2983672107021</v>
+        <v>1016.747244145984</v>
       </c>
       <c r="X6" t="n">
-        <v>969.2983672107021</v>
+        <v>808.8957439404512</v>
       </c>
       <c r="Y6" t="n">
-        <v>969.2983672107021</v>
+        <v>808.8957439404512</v>
       </c>
     </row>
     <row r="7">
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.9636155141767</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="C7" t="n">
-        <v>171.9636155141767</v>
+        <v>469.9169225927772</v>
       </c>
       <c r="D7" t="n">
-        <v>171.9636155141767</v>
+        <v>469.9169225927772</v>
       </c>
       <c r="E7" t="n">
-        <v>171.9636155141767</v>
+        <v>322.003829010384</v>
       </c>
       <c r="F7" t="n">
-        <v>171.9636155141767</v>
+        <v>322.003829010384</v>
       </c>
       <c r="G7" t="n">
-        <v>171.9636155141767</v>
+        <v>322.003829010384</v>
       </c>
       <c r="H7" t="n">
         <v>171.9636155141767</v>
@@ -4744,31 +4744,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q7" t="n">
-        <v>520.2893470405991</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R7" t="n">
-        <v>411.1248508126813</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S7" t="n">
-        <v>211.9453651969077</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T7" t="n">
-        <v>211.9453651969077</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U7" t="n">
-        <v>171.9636155141767</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V7" t="n">
-        <v>171.9636155141767</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W7" t="n">
-        <v>171.9636155141767</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X7" t="n">
-        <v>171.9636155141767</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="Y7" t="n">
-        <v>171.9636155141767</v>
+        <v>497.4664265514521</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1485.69569852365</v>
+        <v>774.9315762009721</v>
       </c>
       <c r="C8" t="n">
-        <v>1288.732535750877</v>
+        <v>774.9315762009721</v>
       </c>
       <c r="D8" t="n">
-        <v>930.4668371441269</v>
+        <v>774.9315762009721</v>
       </c>
       <c r="E8" t="n">
-        <v>544.6785845458827</v>
+        <v>389.1433236027279</v>
       </c>
       <c r="F8" t="n">
-        <v>133.6926797562751</v>
+        <v>382.1978228535244</v>
       </c>
       <c r="G8" t="n">
-        <v>121.742291422556</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="H8" t="n">
-        <v>121.742291422556</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="I8" t="n">
-        <v>44.34100425941065</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="J8" t="n">
-        <v>156.82805594203</v>
+        <v>156.8280559420292</v>
       </c>
       <c r="K8" t="n">
-        <v>376.1555054002246</v>
+        <v>376.1555054002231</v>
       </c>
       <c r="L8" t="n">
-        <v>685.1523625707944</v>
+        <v>685.1523625707919</v>
       </c>
       <c r="M8" t="n">
-        <v>1060.64034093755</v>
+        <v>1060.640340937547</v>
       </c>
       <c r="N8" t="n">
-        <v>1446.817915733709</v>
+        <v>1446.817915733705</v>
       </c>
       <c r="O8" t="n">
-        <v>1798.13918765951</v>
+        <v>1798.139187659506</v>
       </c>
       <c r="P8" t="n">
-        <v>2063.482764284335</v>
+        <v>2063.48276428433</v>
       </c>
       <c r="Q8" t="n">
-        <v>2214.571993228517</v>
+        <v>2214.571993228511</v>
       </c>
       <c r="R8" t="n">
-        <v>2217.050212970532</v>
+        <v>2217.050212970526</v>
       </c>
       <c r="S8" t="n">
-        <v>2085.832821179436</v>
+        <v>2085.83282117943</v>
       </c>
       <c r="T8" t="n">
-        <v>1875.835030499461</v>
+        <v>2085.83282117943</v>
       </c>
       <c r="U8" t="n">
-        <v>1875.835030499461</v>
+        <v>1832.228877075737</v>
       </c>
       <c r="V8" t="n">
-        <v>1875.835030499461</v>
+        <v>1501.165989732166</v>
       </c>
       <c r="W8" t="n">
-        <v>1875.835030499461</v>
+        <v>1148.397334462052</v>
       </c>
       <c r="X8" t="n">
-        <v>1875.835030499461</v>
+        <v>774.9315762009721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1485.69569852365</v>
+        <v>774.9315762009721</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>497.4534271827803</v>
+        <v>522.8920802392474</v>
       </c>
       <c r="C9" t="n">
-        <v>497.4534271827803</v>
+        <v>522.8920802392474</v>
       </c>
       <c r="D9" t="n">
-        <v>497.4534271827803</v>
+        <v>522.8920802392474</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9019880361819</v>
+        <v>363.6546252337919</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3674300630669</v>
+        <v>217.1200672606769</v>
       </c>
       <c r="G9" t="n">
-        <v>175.5129734904267</v>
+        <v>80.26561068803673</v>
       </c>
       <c r="H9" t="n">
-        <v>80.26561068803676</v>
+        <v>80.26561068803673</v>
       </c>
       <c r="I9" t="n">
-        <v>44.34100425941065</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="J9" t="n">
-        <v>92.51967467113516</v>
+        <v>92.51967467113484</v>
       </c>
       <c r="K9" t="n">
-        <v>253.0195209154164</v>
+        <v>253.0195209154156</v>
       </c>
       <c r="L9" t="n">
-        <v>515.1539122572545</v>
+        <v>515.1539122572533</v>
       </c>
       <c r="M9" t="n">
-        <v>840.4092510449742</v>
+        <v>840.4092510449723</v>
       </c>
       <c r="N9" t="n">
-        <v>1188.681775738686</v>
+        <v>1188.681775738683</v>
       </c>
       <c r="O9" t="n">
-        <v>1485.063300074214</v>
+        <v>1485.063300074211</v>
       </c>
       <c r="P9" t="n">
-        <v>1703.602536566944</v>
+        <v>1703.602536566941</v>
       </c>
       <c r="Q9" t="n">
-        <v>1799.771032257641</v>
+        <v>1799.771032257638</v>
       </c>
       <c r="R9" t="n">
-        <v>1769.119480285086</v>
+        <v>1769.119480285083</v>
       </c>
       <c r="S9" t="n">
-        <v>1630.554864058089</v>
+        <v>1630.554864058086</v>
       </c>
       <c r="T9" t="n">
-        <v>1630.554864058089</v>
+        <v>1435.931352611238</v>
       </c>
       <c r="U9" t="n">
-        <v>1402.454691113211</v>
+        <v>1207.83117966636</v>
       </c>
       <c r="V9" t="n">
-        <v>1167.302582881469</v>
+        <v>1153.105072752471</v>
       </c>
       <c r="W9" t="n">
-        <v>913.0652261532671</v>
+        <v>898.8677160242694</v>
       </c>
       <c r="X9" t="n">
-        <v>705.2137259477342</v>
+        <v>898.8677160242694</v>
       </c>
       <c r="Y9" t="n">
-        <v>497.4534271827803</v>
+        <v>691.1074172593155</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.5187653518718</v>
+        <v>48.081901697055</v>
       </c>
       <c r="C10" t="n">
-        <v>211.5187653518718</v>
+        <v>48.081901697055</v>
       </c>
       <c r="D10" t="n">
-        <v>61.40212593953606</v>
+        <v>48.081901697055</v>
       </c>
       <c r="E10" t="n">
-        <v>61.40212593953606</v>
+        <v>48.081901697055</v>
       </c>
       <c r="F10" t="n">
-        <v>61.40212593953606</v>
+        <v>48.081901697055</v>
       </c>
       <c r="G10" t="n">
-        <v>61.40212593953606</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="H10" t="n">
-        <v>61.40212593953606</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="I10" t="n">
-        <v>61.40212593953606</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="J10" t="n">
-        <v>44.34100425941065</v>
+        <v>44.34100425941053</v>
       </c>
       <c r="K10" t="n">
-        <v>95.74470838016751</v>
+        <v>95.74470838016717</v>
       </c>
       <c r="L10" t="n">
-        <v>191.4295496810362</v>
+        <v>191.4295496810356</v>
       </c>
       <c r="M10" t="n">
-        <v>295.5740818422662</v>
+        <v>295.5740818422652</v>
       </c>
       <c r="N10" t="n">
-        <v>405.099815709125</v>
+        <v>405.0998157091237</v>
       </c>
       <c r="O10" t="n">
-        <v>485.9514692712731</v>
+        <v>485.9514692712715</v>
       </c>
       <c r="P10" t="n">
-        <v>536.072055313974</v>
+        <v>536.0720553139722</v>
       </c>
       <c r="Q10" t="n">
-        <v>536.072055313974</v>
+        <v>536.0720553139722</v>
       </c>
       <c r="R10" t="n">
-        <v>536.072055313974</v>
+        <v>536.0720553139722</v>
       </c>
       <c r="S10" t="n">
-        <v>536.072055313974</v>
+        <v>337.207237846199</v>
       </c>
       <c r="T10" t="n">
-        <v>536.072055313974</v>
+        <v>337.207237846199</v>
       </c>
       <c r="U10" t="n">
-        <v>536.072055313974</v>
+        <v>48.081901697055</v>
       </c>
       <c r="V10" t="n">
-        <v>536.072055313974</v>
+        <v>48.081901697055</v>
       </c>
       <c r="W10" t="n">
-        <v>536.072055313974</v>
+        <v>48.081901697055</v>
       </c>
       <c r="X10" t="n">
-        <v>432.3113444954019</v>
+        <v>48.081901697055</v>
       </c>
       <c r="Y10" t="n">
-        <v>211.5187653518718</v>
+        <v>48.081901697055</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2333.452899754456</v>
+        <v>1918.837135195602</v>
       </c>
       <c r="C11" t="n">
-        <v>1964.490382814045</v>
+        <v>1549.87461825519</v>
       </c>
       <c r="D11" t="n">
-        <v>1606.224684207294</v>
+        <v>1191.60891964844</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>805.8206670501954</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194423</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="G11" t="n">
         <v>394.8347622605878</v>
@@ -5036,55 +5036,55 @@
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J11" t="n">
         <v>304.406079670689</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656967</v>
+        <v>695.1615405656953</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.830004625328</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.95612308783</v>
+        <v>1828.956123087829</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484041</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535295</v>
+        <v>3033.988513535294</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479993</v>
+        <v>3493.127967479992</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.74982946406</v>
+        <v>3789.749829464059</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796035</v>
+        <v>3876.883295796034</v>
       </c>
       <c r="S11" t="n">
         <v>3776.999350345376</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926741</v>
+        <v>3776.999350345376</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048269</v>
+        <v>3523.505408466904</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704698</v>
+        <v>3192.442521123333</v>
       </c>
       <c r="W11" t="n">
-        <v>2720.052739818578</v>
+        <v>2839.673865853219</v>
       </c>
       <c r="X11" t="n">
-        <v>2720.052739818578</v>
+        <v>2466.208107592139</v>
       </c>
       <c r="Y11" t="n">
-        <v>2720.052739818578</v>
+        <v>2305.436975259724</v>
       </c>
     </row>
     <row r="12">
@@ -5103,43 +5103,43 @@
         <v>618.1648558508402</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9274008453847</v>
+        <v>458.9274008453848</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
         <v>88.1320871839085</v>
       </c>
       <c r="I12" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J12" t="n">
-        <v>77.5376659159207</v>
+        <v>193.8410919870411</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335448</v>
+        <v>470.7769964046652</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914962</v>
+        <v>889.4740370626166</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948024</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649234</v>
+        <v>1933.239912720354</v>
       </c>
       <c r="O12" t="n">
-        <v>2284.877530981757</v>
+        <v>2000.207762193669</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>485.5244216888897</v>
+        <v>673.640269155594</v>
       </c>
       <c r="C13" t="n">
-        <v>316.5882387609828</v>
+        <v>504.7040862276871</v>
       </c>
       <c r="D13" t="n">
-        <v>225.4507594983138</v>
+        <v>504.7040862276872</v>
       </c>
       <c r="E13" t="n">
-        <v>77.5376659159207</v>
+        <v>356.7909926452942</v>
       </c>
       <c r="F13" t="n">
-        <v>77.5376659159207</v>
+        <v>209.9010451473839</v>
       </c>
       <c r="G13" t="n">
-        <v>77.5376659159207</v>
+        <v>209.9010451473839</v>
       </c>
       <c r="H13" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="I13" t="n">
-        <v>77.5376659159207</v>
+        <v>77.53766591592068</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648142</v>
+        <v>364.1690246648143</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344807</v>
+        <v>710.5788654344808</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5224,25 +5224,25 @@
         <v>2137.362968742807</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276103</v>
+        <v>2137.362968742807</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710543</v>
+        <v>1916.471636177248</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659994</v>
+        <v>1627.379943126699</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454107</v>
+        <v>1372.695454920812</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171467</v>
+        <v>1083.278284883851</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191294</v>
+        <v>855.2887339858337</v>
       </c>
       <c r="Y13" t="n">
-        <v>667.1728865191294</v>
+        <v>855.2887339858337</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.422291068009</v>
@@ -5297,19 +5297,19 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,10 +5349,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
@@ -5361,19 +5361,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768.5380889459577</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C16" t="n">
-        <v>599.6019060180508</v>
+        <v>580.899304487669</v>
       </c>
       <c r="D16" t="n">
-        <v>449.4852666057152</v>
+        <v>430.7826650753334</v>
       </c>
       <c r="E16" t="n">
-        <v>449.4852666057152</v>
+        <v>282.8695714929404</v>
       </c>
       <c r="F16" t="n">
-        <v>302.595319107805</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1170.979132919728</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y16" t="n">
-        <v>950.1865537761975</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>931.4710609784063</v>
+        <v>718.5507239167076</v>
       </c>
       <c r="C19" t="n">
-        <v>762.5348780504994</v>
+        <v>549.6145409888007</v>
       </c>
       <c r="D19" t="n">
-        <v>612.4182386381636</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E19" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580258</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2395.078540748843</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2395.078540748843</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>2106.003314093041</v>
+        <v>1893.082977031342</v>
       </c>
       <c r="V19" t="n">
-        <v>1851.318825887154</v>
+        <v>1638.398488825455</v>
       </c>
       <c r="W19" t="n">
-        <v>1561.901655850193</v>
+        <v>1348.981318788495</v>
       </c>
       <c r="X19" t="n">
-        <v>1333.912104952176</v>
+        <v>1120.991767890477</v>
       </c>
       <c r="Y19" t="n">
-        <v>1113.119525808646</v>
+        <v>900.1991887469474</v>
       </c>
     </row>
     <row r="20">
@@ -5747,25 +5747,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5832,16 +5832,16 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282754</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583152</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1187.022157454266</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111725</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>577.862038843392</v>
+        <v>571.6607764188007</v>
       </c>
       <c r="C25" t="n">
-        <v>408.9258559154851</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>408.9258559154851</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6151,46 +6151,46 @@
         <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1752.394291958026</v>
+        <v>1746.193029533435</v>
       </c>
       <c r="V25" t="n">
-        <v>1497.70980375214</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1208.292633715179</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>980.3030828171619</v>
+        <v>974.1018203925705</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.5105036736318</v>
+        <v>753.3092412490404</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>718.550723916711</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C28" t="n">
-        <v>549.6145409888042</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T28" t="n">
-        <v>2182.158203687148</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1893.082977031346</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V28" t="n">
-        <v>1638.398488825459</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W28" t="n">
-        <v>1348.981318788498</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1120.991767890481</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y28" t="n">
-        <v>900.1991887469508</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>915.1035305473699</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473699</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,34 +6713,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2273.199413378161</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.199413378161</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="35">
@@ -6917,37 +6917,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7105,10 +7105,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="38">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7166,25 +7166,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K40" t="n">
         <v>435.7419440038341</v>
@@ -7342,40 +7342,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7403,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>120.680066384834</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121644</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7606,13 +7606,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="44">
@@ -7646,10 +7646,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270442</v>
+        <v>177.7213185270441</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q46" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W46" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.50206557031</v>
       </c>
     </row>
   </sheetData>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,13 +23318,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>83.51390558015402</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>227.0745176469625</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>58.38936854816995</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>11.91214952736937</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927376</v>
+        <v>90.25352389927377</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905241</v>
+        <v>79.81330679905243</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>123.7828069546811</v>
       </c>
       <c r="G16" t="n">
-        <v>40.09910511159879</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462196</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>129.6605885985433</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>202.6501519448694</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856484</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.85445046951749</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>201.6449909028985</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>63.36835372228705</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>47.21554925516975</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>202.6501519448735</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24835,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>36.30694539606364</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516653</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25087,13 +25087,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>75.37549921168767</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194214</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194208</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.22910392194245</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.2291039219421</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194227</v>
+        <v>57.22910392194208</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>984709.459858858</v>
+        <v>984709.4598588579</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1083497.955784541</v>
+        <v>1083497.955784542</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1083497.955784542</v>
+        <v>1083497.955784541</v>
       </c>
     </row>
     <row r="13">
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>348942.7521923206</v>
+      </c>
+      <c r="C2" t="n">
         <v>348942.7521923204</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>348942.7521923205</v>
       </c>
-      <c r="D2" t="n">
-        <v>348942.7521923207</v>
-      </c>
       <c r="E2" t="n">
-        <v>311350.4288166184</v>
+        <v>311350.4288166183</v>
       </c>
       <c r="F2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="G2" t="n">
         <v>343037.3048682527</v>
-      </c>
-      <c r="G2" t="n">
-        <v>343037.3048682528</v>
       </c>
       <c r="H2" t="n">
         <v>343037.3048682527</v>
@@ -26335,13 +26335,13 @@
         <v>343037.3048682527</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682526</v>
       </c>
       <c r="M2" t="n">
         <v>343037.3048682527</v>
@@ -26350,10 +26350,10 @@
         <v>343037.3048682527</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="P2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>392510.2442861773</v>
+        <v>392510.2442861776</v>
       </c>
       <c r="D3" t="n">
-        <v>12262.85603264304</v>
+        <v>12262.85603264162</v>
       </c>
       <c r="E3" t="n">
-        <v>395943.9567674492</v>
+        <v>395943.9567674503</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704292</v>
+        <v>189308.2687704297</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285446</v>
+        <v>49064.94472854442</v>
       </c>
       <c r="K3" t="n">
-        <v>91259.95686487775</v>
+        <v>91259.95686487776</v>
       </c>
       <c r="L3" t="n">
-        <v>3074.447349949881</v>
+        <v>3074.447349949461</v>
       </c>
       <c r="M3" t="n">
-        <v>103409.2608931116</v>
+        <v>103409.260893112</v>
       </c>
       <c r="N3" t="n">
         <v>49839.57413202371</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
         <v>174202.9900888977</v>
       </c>
       <c r="D4" t="n">
-        <v>170817.8827607418</v>
+        <v>170817.8827607422</v>
       </c>
       <c r="E4" t="n">
         <v>14721.27748222082</v>
@@ -26430,31 +26430,31 @@
         <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186738</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186737</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="J4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="L4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186738</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
         <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>86153.7544440417</v>
+        <v>86153.75444404158</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738564</v>
+        <v>85137.48506738563</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-577936.5155742685</v>
+        <v>-577936.5155742683</v>
       </c>
       <c r="C6" t="n">
-        <v>-302969.5640386267</v>
+        <v>-302969.5640386271</v>
       </c>
       <c r="D6" t="n">
-        <v>79708.25895489415</v>
+        <v>79708.25895489514</v>
       </c>
       <c r="E6" t="n">
-        <v>-184452.2905004372</v>
+        <v>-184673.4218144131</v>
       </c>
       <c r="F6" t="n">
-        <v>37779.81023204904</v>
+        <v>37745.07230661293</v>
       </c>
       <c r="G6" t="n">
-        <v>227088.0790024784</v>
+        <v>227053.3410770425</v>
       </c>
       <c r="H6" t="n">
-        <v>227088.0790024782</v>
+        <v>227053.3410770425</v>
       </c>
       <c r="I6" t="n">
-        <v>227088.0790024782</v>
+        <v>227053.3410770425</v>
       </c>
       <c r="J6" t="n">
-        <v>178023.1342739337</v>
+        <v>177988.3963484981</v>
       </c>
       <c r="K6" t="n">
-        <v>135828.1221376006</v>
+        <v>135793.3842121647</v>
       </c>
       <c r="L6" t="n">
-        <v>224013.6316525285</v>
+        <v>223978.8937270929</v>
       </c>
       <c r="M6" t="n">
-        <v>123678.8181093666</v>
+        <v>123644.0801839305</v>
       </c>
       <c r="N6" t="n">
-        <v>177248.5048704545</v>
+        <v>177213.7669450188</v>
       </c>
       <c r="O6" t="n">
-        <v>227088.0790024784</v>
+        <v>227053.3410770425</v>
       </c>
       <c r="P6" t="n">
-        <v>227088.0790024782</v>
+        <v>227053.3410770426</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
         <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>863.6234498573216</v>
+        <v>863.6234498573205</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
         <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>554.2625532426331</v>
+        <v>554.2625532426316</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490087</v>
+        <v>969.2208239490086</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>305.2407236247793</v>
+        <v>305.2407236247795</v>
       </c>
       <c r="D3" t="n">
-        <v>9.912785319637464</v>
+        <v>9.912785319636328</v>
       </c>
       <c r="E3" t="n">
-        <v>338.6177873576286</v>
+        <v>338.6177873576295</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267236</v>
+        <v>165.734263126724</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="D4" t="n">
-        <v>12.14759651646989</v>
+        <v>12.14759651646846</v>
       </c>
       <c r="E4" t="n">
-        <v>414.9582707063756</v>
+        <v>414.958270706377</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506397</v>
+        <v>203.48746415064</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598433</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646989</v>
+        <v>12.14759651646823</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063756</v>
+        <v>414.9582707063772</v>
       </c>
       <c r="N4" t="n">
         <v>203.4874641506397</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>354.5893695598431</v>
+        <v>354.5893695598434</v>
       </c>
       <c r="L4" t="n">
-        <v>12.14759651646989</v>
+        <v>12.14759651646846</v>
       </c>
       <c r="M4" t="n">
-        <v>414.9582707063756</v>
+        <v>414.958270706377</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506397</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753913</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>247.9252960539633</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988665</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27439,13 +27439,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>175.2925365368212</v>
       </c>
       <c r="X2" t="n">
-        <v>182.2055135121489</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="3">
@@ -27473,13 +27473,13 @@
         <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,22 +27509,22 @@
         <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.8840106256811</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>217.8599005173795</v>
+        <v>72.27151179770829</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715735</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098424</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,10 +27576,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27594,13 +27594,13 @@
         <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>199.9216970693934</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>173.4937091346027</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,13 +27616,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>279.6664957495735</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>333.8446073517005</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>139.038676773663</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27707,7 +27707,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>131.304090161344</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27755,10 +27755,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -27774,13 +27774,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>139.9728121795397</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U7" t="n">
-        <v>246.653125629813</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>170.2793606259629</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>77.35263404220927</v>
       </c>
       <c r="H8" t="n">
         <v>303.918686916365</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>76.62727429151403</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.8978127731749</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0679046626562</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -27938,7 +27938,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>119.4791557002685</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27947,7 +27947,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.29488917436609</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27983,19 +27983,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.6772763323794</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>178.6217413046754</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,16 +28023,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.433625596421</v>
+        <v>162.7301371331529</v>
       </c>
       <c r="H10" t="n">
         <v>148.3808817867763</v>
       </c>
       <c r="I10" t="n">
-        <v>108.6165999743399</v>
+        <v>108.61659997434</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>16.8905104633243</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.09786070099028</v>
+        <v>21.09786070099045</v>
       </c>
       <c r="R10" t="n">
-        <v>107.2691031313611</v>
+        <v>107.2691031313612</v>
       </c>
       <c r="S10" t="n">
-        <v>196.8761692930954</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>221.2914415359382</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2340827876525</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>122.9865516786507</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-5.941657041270767e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>4.234834705130197e-12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3.376499080331996e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28977,7 +28977,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.471853064753049</v>
+        <v>3.471853064753045</v>
       </c>
       <c r="H8" t="n">
-        <v>35.55611519940217</v>
+        <v>35.55611519940212</v>
       </c>
       <c r="I8" t="n">
-        <v>133.8486152788921</v>
+        <v>133.8486152788919</v>
       </c>
       <c r="J8" t="n">
-        <v>294.6691890545844</v>
+        <v>294.669189054584</v>
       </c>
       <c r="K8" t="n">
-        <v>441.632729285581</v>
+        <v>441.6327292855804</v>
       </c>
       <c r="L8" t="n">
-        <v>547.8844525160173</v>
+        <v>547.8844525160165</v>
       </c>
       <c r="M8" t="n">
-        <v>609.6270194563192</v>
+        <v>609.6270194563184</v>
       </c>
       <c r="N8" t="n">
-        <v>619.491421976549</v>
+        <v>619.4914219765481</v>
       </c>
       <c r="O8" t="n">
-        <v>584.9681830639107</v>
+        <v>584.9681830639099</v>
       </c>
       <c r="P8" t="n">
-        <v>499.2568105278198</v>
+        <v>499.2568105278191</v>
       </c>
       <c r="Q8" t="n">
-        <v>374.9210726463511</v>
+        <v>374.9210726463506</v>
       </c>
       <c r="R8" t="n">
-        <v>218.0887900787939</v>
+        <v>218.0887900787936</v>
       </c>
       <c r="S8" t="n">
-        <v>79.11485171306018</v>
+        <v>79.11485171306008</v>
       </c>
       <c r="T8" t="n">
-        <v>15.19803679095648</v>
+        <v>15.19803679095646</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2777482451802439</v>
+        <v>0.2777482451802435</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.85760515629688</v>
+        <v>1.857605156296878</v>
       </c>
       <c r="H9" t="n">
-        <v>17.9405550621304</v>
+        <v>17.94055506213038</v>
       </c>
       <c r="I9" t="n">
-        <v>63.95701963566015</v>
+        <v>63.95701963566006</v>
       </c>
       <c r="J9" t="n">
-        <v>175.5029503148733</v>
+        <v>175.5029503148731</v>
       </c>
       <c r="K9" t="n">
-        <v>299.9624957867642</v>
+        <v>299.9624957867638</v>
       </c>
       <c r="L9" t="n">
-        <v>403.3365932564784</v>
+        <v>403.3365932564778</v>
       </c>
       <c r="M9" t="n">
-        <v>470.6747801722402</v>
+        <v>470.6747801722396</v>
       </c>
       <c r="N9" t="n">
-        <v>483.1321410668804</v>
+        <v>483.1321410668797</v>
       </c>
       <c r="O9" t="n">
-        <v>441.9715215510389</v>
+        <v>441.9715215510383</v>
       </c>
       <c r="P9" t="n">
-        <v>354.7211109423403</v>
+        <v>354.7211109423398</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.1216687230895</v>
+        <v>237.1216687230892</v>
       </c>
       <c r="R9" t="n">
-        <v>115.3344675111344</v>
+        <v>115.3344675111343</v>
       </c>
       <c r="S9" t="n">
-        <v>34.50420103911089</v>
+        <v>34.50420103911085</v>
       </c>
       <c r="T9" t="n">
-        <v>7.487452362442248</v>
+        <v>7.487452362442238</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1222108655458475</v>
+        <v>0.1222108655458473</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.557353762037793</v>
+        <v>1.557353762037791</v>
       </c>
       <c r="H10" t="n">
-        <v>13.8462907206633</v>
+        <v>13.84629072066328</v>
       </c>
       <c r="I10" t="n">
-        <v>46.83387495291836</v>
+        <v>46.83387495291831</v>
       </c>
       <c r="J10" t="n">
-        <v>110.1049109760719</v>
+        <v>110.1049109760718</v>
       </c>
       <c r="K10" t="n">
-        <v>180.9361916258453</v>
+        <v>180.9361916258451</v>
       </c>
       <c r="L10" t="n">
-        <v>231.5360311306006</v>
+        <v>231.5360311306003</v>
       </c>
       <c r="M10" t="n">
-        <v>244.1222810801605</v>
+        <v>244.1222810801602</v>
       </c>
       <c r="N10" t="n">
-        <v>238.3175988762017</v>
+        <v>238.3175988762014</v>
       </c>
       <c r="O10" t="n">
-        <v>220.1248753833056</v>
+        <v>220.1248753833053</v>
       </c>
       <c r="P10" t="n">
-        <v>188.3548586377344</v>
+        <v>188.3548586377342</v>
       </c>
       <c r="Q10" t="n">
-        <v>130.4071409284556</v>
+        <v>130.4071409284554</v>
       </c>
       <c r="R10" t="n">
-        <v>70.02428824580838</v>
+        <v>70.02428824580828</v>
       </c>
       <c r="S10" t="n">
-        <v>27.1404287438768</v>
+        <v>27.14042874387676</v>
       </c>
       <c r="T10" t="n">
-        <v>6.654147892343295</v>
+        <v>6.654147892343286</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08494656883842516</v>
+        <v>0.08494656883842505</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869143</v>
+        <v>4.833130601869142</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639237</v>
+        <v>49.49729877639236</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285603</v>
@@ -31762,28 +31762,28 @@
         <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975125</v>
+        <v>614.7923367975123</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544654</v>
+        <v>762.7042574544653</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954558</v>
+        <v>848.6554437954555</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180165</v>
+        <v>862.3875761180163</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956802</v>
+        <v>814.32813369568</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620356</v>
+        <v>695.0102219620354</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825968</v>
+        <v>521.9237322825967</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696628</v>
+        <v>303.5991401696627</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495314</v>
+        <v>0.3866504481495313</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,40 +31832,40 @@
         <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837095</v>
+        <v>24.97486041837094</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469207</v>
+        <v>89.03390294469206</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
         <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747747</v>
+        <v>561.4806834747745</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821477</v>
+        <v>655.2214742821476</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340503</v>
+        <v>672.5632370340502</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924472</v>
+        <v>210.2405368417317</v>
       </c>
       <c r="P12" t="n">
-        <v>411.2476038555603</v>
+        <v>493.8035753383443</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047538</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605173</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627652</v>
+        <v>48.0329399962765</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31908,22 +31908,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535156</v>
+        <v>2.167976001535155</v>
       </c>
       <c r="H13" t="n">
         <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798453</v>
+        <v>65.19695102798451</v>
       </c>
       <c r="J13" t="n">
         <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329026</v>
+        <v>251.8793936329025</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100541</v>
+        <v>322.318904810054</v>
       </c>
       <c r="M13" t="n">
         <v>339.8400926770062</v>
@@ -31932,25 +31932,25 @@
         <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806238</v>
+        <v>306.4335533806237</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194574</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811707</v>
+        <v>97.48008457811706</v>
       </c>
       <c r="S13" t="n">
         <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377481</v>
+        <v>9.26317018837748</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473723</v>
+        <v>0.1182532364473722</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32081,34 +32081,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>436.4492970000073</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,19 +32552,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33260,31 +33260,31 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,16 +33734,16 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,13 +33752,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,19 +34208,19 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>153.972377511982</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34229,10 +34229,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,16 +34445,16 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34463,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913764</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>113.6232845278981</v>
+        <v>113.6232845278977</v>
       </c>
       <c r="K8" t="n">
-        <v>221.5428782406005</v>
+        <v>221.5428782405999</v>
       </c>
       <c r="L8" t="n">
-        <v>312.1180375460301</v>
+        <v>312.1180375460293</v>
       </c>
       <c r="M8" t="n">
-        <v>379.2807862290465</v>
+        <v>379.2807862290457</v>
       </c>
       <c r="N8" t="n">
-        <v>390.078358379958</v>
+        <v>390.0783583799571</v>
       </c>
       <c r="O8" t="n">
-        <v>354.869971642224</v>
+        <v>354.8699716422232</v>
       </c>
       <c r="P8" t="n">
-        <v>268.0238147725502</v>
+        <v>268.0238147725495</v>
       </c>
       <c r="Q8" t="n">
-        <v>152.6153827719016</v>
+        <v>152.6153827719011</v>
       </c>
       <c r="R8" t="n">
-        <v>2.503252264661796</v>
+        <v>2.503252264661484</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>48.66532364820659</v>
+        <v>48.66532364820637</v>
       </c>
       <c r="K9" t="n">
-        <v>162.1210568124052</v>
+        <v>162.1210568124048</v>
       </c>
       <c r="L9" t="n">
-        <v>264.7822134766042</v>
+        <v>264.7822134766037</v>
       </c>
       <c r="M9" t="n">
-        <v>328.5407462502219</v>
+        <v>328.5407462502213</v>
       </c>
       <c r="N9" t="n">
-        <v>351.790428983547</v>
+        <v>351.7904289835463</v>
       </c>
       <c r="O9" t="n">
-        <v>299.3752771065945</v>
+        <v>299.3752771065939</v>
       </c>
       <c r="P9" t="n">
-        <v>220.7467035280101</v>
+        <v>220.7467035280096</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.13989463706801</v>
+        <v>97.1398946370677</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>51.92293345530996</v>
+        <v>51.92293345530973</v>
       </c>
       <c r="L10" t="n">
-        <v>96.65135484936235</v>
+        <v>96.65135484936204</v>
       </c>
       <c r="M10" t="n">
-        <v>105.1964971325555</v>
+        <v>105.1964971325552</v>
       </c>
       <c r="N10" t="n">
-        <v>110.6320544109685</v>
+        <v>110.6320544109682</v>
       </c>
       <c r="O10" t="n">
-        <v>81.66833693146279</v>
+        <v>81.66833693146248</v>
       </c>
       <c r="P10" t="n">
-        <v>50.62685458858681</v>
+        <v>50.62685458858658</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,28 +35410,28 @@
         <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525319</v>
+        <v>394.7024857525318</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681831</v>
+        <v>618.3092105681828</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214256</v>
+        <v>632.9745125214254</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739935</v>
+        <v>584.2299222739932</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067661</v>
+        <v>463.7772262067659</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081473</v>
+        <v>299.6180424081472</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553068</v>
+        <v>88.01360235553062</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
         <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949005</v>
+        <v>422.9263036949004</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601294</v>
+        <v>513.0874403601292</v>
       </c>
       <c r="N12" t="n">
-        <v>541.221524950717</v>
+        <v>541.2215249507169</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480028</v>
+        <v>67.64429239728722</v>
       </c>
       <c r="P12" t="n">
-        <v>277.2731964412301</v>
+        <v>359.829167924014</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187323</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655339</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186273</v>
+        <v>59.9167231918627</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070197</v>
@@ -35580,13 +35580,13 @@
         <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946635</v>
+        <v>331.0186812946634</v>
       </c>
       <c r="P13" t="n">
         <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776309</v>
+        <v>95.37638356776306</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>302.474889585677</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35960,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,25 +36039,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306623</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,19 +36200,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,13 +37400,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>27.13475084531535</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>27.13475084531533</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37877,10 +37877,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,16 +38093,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38111,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770462</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
